--- a/程序员客栈项目/因卓科技教育平台/因卓教育阶段二/原始需求输入/因卓教育阶段二功能点(功能删减).xlsx
+++ b/程序员客栈项目/因卓科技教育平台/因卓教育阶段二/原始需求输入/因卓教育阶段二功能点(功能删减).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="15960" windowHeight="18084" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="36" windowWidth="15960" windowHeight="18084" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="导出摘要" sheetId="1" r:id="rId1"/>
@@ -1466,23 +1466,32 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1503,28 +1512,19 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1547,6 +1547,12 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1555,12 +1561,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2937,7 +2937,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IU16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
@@ -7131,7 +7133,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV105"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
@@ -7145,14 +7149,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.05" customHeight="1">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
     </row>
     <row r="2" spans="1:6" ht="26.1" customHeight="1">
       <c r="A2" s="44" t="s">
@@ -7175,13 +7179,13 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="26.1" customHeight="1">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="99" t="s">
         <v>49</v>
       </c>
       <c r="D3" s="46" t="s">
@@ -7193,9 +7197,9 @@
       <c r="F3" s="47"/>
     </row>
     <row r="4" spans="1:6" ht="26.1" customHeight="1">
-      <c r="A4" s="94"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
+      <c r="A4" s="97"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
       <c r="D4" s="46" t="s">
         <v>52</v>
       </c>
@@ -7205,9 +7209,9 @@
       <c r="F4" s="47"/>
     </row>
     <row r="5" spans="1:6" ht="26.1" customHeight="1">
-      <c r="A5" s="94"/>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
+      <c r="A5" s="97"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
       <c r="D5" s="46" t="s">
         <v>54</v>
       </c>
@@ -7217,9 +7221,9 @@
       <c r="F5" s="47"/>
     </row>
     <row r="6" spans="1:6" ht="26.1" customHeight="1">
-      <c r="A6" s="94"/>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
+      <c r="A6" s="97"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
       <c r="D6" s="46" t="s">
         <v>56</v>
       </c>
@@ -7229,9 +7233,9 @@
       <c r="F6" s="47"/>
     </row>
     <row r="7" spans="1:6" ht="31.2" customHeight="1">
-      <c r="A7" s="94"/>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
+      <c r="A7" s="97"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
       <c r="D7" s="46" t="s">
         <v>58</v>
       </c>
@@ -7241,9 +7245,9 @@
       <c r="F7" s="47"/>
     </row>
     <row r="8" spans="1:6" ht="15.6" customHeight="1">
-      <c r="A8" s="94"/>
-      <c r="B8" s="87"/>
-      <c r="C8" s="87"/>
+      <c r="A8" s="97"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="100"/>
       <c r="D8" s="46" t="s">
         <v>60</v>
       </c>
@@ -7253,9 +7257,9 @@
       <c r="F8" s="47"/>
     </row>
     <row r="9" spans="1:6" ht="26.1" customHeight="1">
-      <c r="A9" s="94"/>
-      <c r="B9" s="87"/>
-      <c r="C9" s="88"/>
+      <c r="A9" s="97"/>
+      <c r="B9" s="100"/>
+      <c r="C9" s="101"/>
       <c r="D9" s="46" t="s">
         <v>62</v>
       </c>
@@ -7265,8 +7269,8 @@
       <c r="F9" s="47"/>
     </row>
     <row r="10" spans="1:6" ht="26.1" customHeight="1">
-      <c r="A10" s="94"/>
-      <c r="B10" s="87"/>
+      <c r="A10" s="97"/>
+      <c r="B10" s="100"/>
       <c r="C10" s="46" t="s">
         <v>64</v>
       </c>
@@ -7277,8 +7281,8 @@
       <c r="F10" s="47"/>
     </row>
     <row r="11" spans="1:6" ht="26.1" customHeight="1">
-      <c r="A11" s="94"/>
-      <c r="B11" s="87"/>
+      <c r="A11" s="97"/>
+      <c r="B11" s="100"/>
       <c r="C11" s="46" t="s">
         <v>66</v>
       </c>
@@ -7289,8 +7293,8 @@
       <c r="F11" s="47"/>
     </row>
     <row r="12" spans="1:6" ht="26.1" customHeight="1">
-      <c r="A12" s="94"/>
-      <c r="B12" s="88"/>
+      <c r="A12" s="97"/>
+      <c r="B12" s="101"/>
       <c r="C12" s="46" t="s">
         <v>68</v>
       </c>
@@ -7301,8 +7305,8 @@
       <c r="F12" s="47"/>
     </row>
     <row r="13" spans="1:6" ht="26.1" customHeight="1">
-      <c r="A13" s="94"/>
-      <c r="B13" s="96" t="s">
+      <c r="A13" s="97"/>
+      <c r="B13" s="102" t="s">
         <v>70</v>
       </c>
       <c r="C13" s="46" t="s">
@@ -7315,8 +7319,8 @@
       <c r="F13" s="47"/>
     </row>
     <row r="14" spans="1:6" ht="26.1" customHeight="1">
-      <c r="A14" s="95"/>
-      <c r="B14" s="97"/>
+      <c r="A14" s="98"/>
+      <c r="B14" s="103"/>
       <c r="C14" s="46" t="s">
         <v>73</v>
       </c>
@@ -7327,10 +7331,10 @@
       <c r="F14" s="47"/>
     </row>
     <row r="15" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A15" s="90" t="s">
+      <c r="A15" s="93" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="84" t="s">
+      <c r="B15" s="89" t="s">
         <v>76</v>
       </c>
       <c r="C15" s="49" t="s">
@@ -7345,8 +7349,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A16" s="91"/>
-      <c r="B16" s="85"/>
+      <c r="A16" s="94"/>
+      <c r="B16" s="88"/>
       <c r="C16" s="49" t="s">
         <v>80</v>
       </c>
@@ -7359,9 +7363,9 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="27.6" customHeight="1">
-      <c r="A17" s="91"/>
-      <c r="B17" s="85"/>
-      <c r="C17" s="84" t="s">
+      <c r="A17" s="94"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="89" t="s">
         <v>82</v>
       </c>
       <c r="D17" s="52" t="s">
@@ -7375,9 +7379,9 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A18" s="91"/>
-      <c r="B18" s="85"/>
-      <c r="C18" s="85"/>
+      <c r="A18" s="94"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="88"/>
       <c r="D18" s="52" t="s">
         <v>86</v>
       </c>
@@ -7389,9 +7393,9 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="55.2" customHeight="1">
-      <c r="A19" s="91"/>
-      <c r="B19" s="85"/>
-      <c r="C19" s="85"/>
+      <c r="A19" s="94"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="88"/>
       <c r="D19" s="52" t="s">
         <v>89</v>
       </c>
@@ -7403,9 +7407,9 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="55.2" customHeight="1">
-      <c r="A20" s="91"/>
-      <c r="B20" s="85"/>
-      <c r="C20" s="85"/>
+      <c r="A20" s="94"/>
+      <c r="B20" s="88"/>
+      <c r="C20" s="88"/>
       <c r="D20" s="52" t="s">
         <v>92</v>
       </c>
@@ -7417,9 +7421,9 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A21" s="91"/>
-      <c r="B21" s="85"/>
-      <c r="C21" s="85"/>
+      <c r="A21" s="94"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="88"/>
       <c r="D21" s="52" t="s">
         <v>95</v>
       </c>
@@ -7429,8 +7433,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A22" s="91"/>
-      <c r="B22" s="85"/>
+      <c r="A22" s="94"/>
+      <c r="B22" s="88"/>
       <c r="C22" s="49" t="s">
         <v>97</v>
       </c>
@@ -7443,8 +7447,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A23" s="91"/>
-      <c r="B23" s="85"/>
+      <c r="A23" s="94"/>
+      <c r="B23" s="88"/>
       <c r="C23" s="49" t="s">
         <v>99</v>
       </c>
@@ -7455,8 +7459,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A24" s="91"/>
-      <c r="B24" s="85"/>
+      <c r="A24" s="94"/>
+      <c r="B24" s="88"/>
       <c r="C24" s="49" t="s">
         <v>100</v>
       </c>
@@ -7469,115 +7473,115 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A25" s="91"/>
-      <c r="B25" s="85"/>
-      <c r="C25" s="89" t="s">
+      <c r="A25" s="94"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="87" t="s">
         <v>102</v>
       </c>
       <c r="D25" s="49" t="s">
         <v>103</v>
       </c>
       <c r="E25" s="50"/>
-      <c r="F25" s="89" t="s">
+      <c r="F25" s="87" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A26" s="91"/>
-      <c r="B26" s="85"/>
-      <c r="C26" s="85"/>
+      <c r="A26" s="94"/>
+      <c r="B26" s="88"/>
+      <c r="C26" s="88"/>
       <c r="D26" s="49" t="s">
         <v>104</v>
       </c>
       <c r="E26" s="50"/>
-      <c r="F26" s="85"/>
+      <c r="F26" s="88"/>
     </row>
     <row r="27" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A27" s="91"/>
-      <c r="B27" s="85"/>
-      <c r="C27" s="85"/>
+      <c r="A27" s="94"/>
+      <c r="B27" s="88"/>
+      <c r="C27" s="88"/>
       <c r="D27" s="49" t="s">
         <v>105</v>
       </c>
       <c r="E27" s="50"/>
-      <c r="F27" s="85"/>
+      <c r="F27" s="88"/>
     </row>
     <row r="28" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A28" s="91"/>
-      <c r="B28" s="85"/>
-      <c r="C28" s="85"/>
+      <c r="A28" s="94"/>
+      <c r="B28" s="88"/>
+      <c r="C28" s="88"/>
       <c r="D28" s="49" t="s">
         <v>106</v>
       </c>
       <c r="E28" s="50"/>
-      <c r="F28" s="85"/>
+      <c r="F28" s="88"/>
     </row>
     <row r="29" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A29" s="91"/>
-      <c r="B29" s="85"/>
-      <c r="C29" s="85"/>
+      <c r="A29" s="94"/>
+      <c r="B29" s="88"/>
+      <c r="C29" s="88"/>
       <c r="D29" s="49" t="s">
         <v>107</v>
       </c>
       <c r="E29" s="50"/>
-      <c r="F29" s="85"/>
+      <c r="F29" s="88"/>
     </row>
     <row r="30" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A30" s="91"/>
-      <c r="B30" s="85"/>
-      <c r="C30" s="85"/>
+      <c r="A30" s="94"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="88"/>
       <c r="D30" s="49" t="s">
         <v>108</v>
       </c>
       <c r="E30" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="F30" s="85"/>
+      <c r="F30" s="88"/>
     </row>
     <row r="31" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A31" s="91"/>
-      <c r="B31" s="85"/>
-      <c r="C31" s="85"/>
+      <c r="A31" s="94"/>
+      <c r="B31" s="88"/>
+      <c r="C31" s="88"/>
       <c r="D31" s="49" t="s">
         <v>110</v>
       </c>
       <c r="E31" s="50"/>
-      <c r="F31" s="85"/>
+      <c r="F31" s="88"/>
     </row>
     <row r="32" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A32" s="91"/>
-      <c r="B32" s="85"/>
-      <c r="C32" s="85"/>
+      <c r="A32" s="94"/>
+      <c r="B32" s="88"/>
+      <c r="C32" s="88"/>
       <c r="D32" s="49" t="s">
         <v>111</v>
       </c>
       <c r="E32" s="50"/>
-      <c r="F32" s="85"/>
+      <c r="F32" s="88"/>
     </row>
     <row r="33" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A33" s="91"/>
-      <c r="B33" s="85"/>
-      <c r="C33" s="85"/>
+      <c r="A33" s="94"/>
+      <c r="B33" s="88"/>
+      <c r="C33" s="88"/>
       <c r="D33" s="49" t="s">
         <v>112</v>
       </c>
       <c r="E33" s="50"/>
-      <c r="F33" s="85"/>
+      <c r="F33" s="88"/>
     </row>
     <row r="34" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A34" s="91"/>
-      <c r="B34" s="85"/>
-      <c r="C34" s="85"/>
+      <c r="A34" s="94"/>
+      <c r="B34" s="88"/>
+      <c r="C34" s="88"/>
       <c r="D34" s="49" t="s">
         <v>113</v>
       </c>
       <c r="E34" s="50"/>
-      <c r="F34" s="85"/>
+      <c r="F34" s="88"/>
     </row>
     <row r="35" spans="1:6" ht="27.6" customHeight="1">
-      <c r="A35" s="91"/>
-      <c r="B35" s="85"/>
-      <c r="C35" s="84" t="s">
+      <c r="A35" s="94"/>
+      <c r="B35" s="88"/>
+      <c r="C35" s="89" t="s">
         <v>114</v>
       </c>
       <c r="D35" s="52" t="s">
@@ -7587,9 +7591,9 @@
       <c r="F35" s="51"/>
     </row>
     <row r="36" spans="1:6" ht="27.6" customHeight="1">
-      <c r="A36" s="91"/>
-      <c r="B36" s="85"/>
-      <c r="C36" s="85"/>
+      <c r="A36" s="94"/>
+      <c r="B36" s="88"/>
+      <c r="C36" s="88"/>
       <c r="D36" s="52" t="s">
         <v>116</v>
       </c>
@@ -7597,9 +7601,9 @@
       <c r="F36" s="51"/>
     </row>
     <row r="37" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A37" s="91"/>
-      <c r="B37" s="85"/>
-      <c r="C37" s="85"/>
+      <c r="A37" s="94"/>
+      <c r="B37" s="88"/>
+      <c r="C37" s="88"/>
       <c r="D37" s="52" t="s">
         <v>117</v>
       </c>
@@ -7607,9 +7611,9 @@
       <c r="F37" s="51"/>
     </row>
     <row r="38" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A38" s="91"/>
-      <c r="B38" s="85"/>
-      <c r="C38" s="85"/>
+      <c r="A38" s="94"/>
+      <c r="B38" s="88"/>
+      <c r="C38" s="88"/>
       <c r="D38" s="52" t="s">
         <v>118</v>
       </c>
@@ -7617,9 +7621,9 @@
       <c r="F38" s="51"/>
     </row>
     <row r="39" spans="1:6" ht="27.6" customHeight="1">
-      <c r="A39" s="91"/>
-      <c r="B39" s="85"/>
-      <c r="C39" s="85"/>
+      <c r="A39" s="94"/>
+      <c r="B39" s="88"/>
+      <c r="C39" s="88"/>
       <c r="D39" s="52" t="s">
         <v>119</v>
       </c>
@@ -7627,9 +7631,9 @@
       <c r="F39" s="51"/>
     </row>
     <row r="40" spans="1:6" ht="82.8" customHeight="1">
-      <c r="A40" s="92"/>
-      <c r="B40" s="85"/>
-      <c r="C40" s="85"/>
+      <c r="A40" s="95"/>
+      <c r="B40" s="88"/>
+      <c r="C40" s="88"/>
       <c r="D40" s="52" t="s">
         <v>120</v>
       </c>
@@ -7641,10 +7645,10 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A41" s="93" t="s">
+      <c r="A41" s="96" t="s">
         <v>123</v>
       </c>
-      <c r="B41" s="102" t="s">
+      <c r="B41" s="85" t="s">
         <v>124</v>
       </c>
       <c r="C41" s="53" t="s">
@@ -7657,8 +7661,8 @@
       <c r="F41" s="54"/>
     </row>
     <row r="42" spans="1:6" ht="27.6" customHeight="1">
-      <c r="A42" s="94"/>
-      <c r="B42" s="103"/>
+      <c r="A42" s="97"/>
+      <c r="B42" s="86"/>
       <c r="C42" s="53" t="s">
         <v>127</v>
       </c>
@@ -7669,8 +7673,8 @@
       <c r="F42" s="54"/>
     </row>
     <row r="43" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A43" s="94"/>
-      <c r="B43" s="103"/>
+      <c r="A43" s="97"/>
+      <c r="B43" s="86"/>
       <c r="C43" s="53" t="s">
         <v>129</v>
       </c>
@@ -7679,8 +7683,8 @@
       <c r="F43" s="54"/>
     </row>
     <row r="44" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A44" s="94"/>
-      <c r="B44" s="103"/>
+      <c r="A44" s="97"/>
+      <c r="B44" s="86"/>
       <c r="C44" s="53" t="s">
         <v>130</v>
       </c>
@@ -7689,8 +7693,8 @@
       <c r="F44" s="54"/>
     </row>
     <row r="45" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A45" s="94"/>
-      <c r="B45" s="103"/>
+      <c r="A45" s="97"/>
+      <c r="B45" s="86"/>
       <c r="C45" s="53" t="s">
         <v>131</v>
       </c>
@@ -7701,8 +7705,8 @@
       <c r="F45" s="54"/>
     </row>
     <row r="46" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A46" s="94"/>
-      <c r="B46" s="103"/>
+      <c r="A46" s="97"/>
+      <c r="B46" s="86"/>
       <c r="C46" s="53" t="s">
         <v>133</v>
       </c>
@@ -7711,8 +7715,8 @@
       <c r="F46" s="54"/>
     </row>
     <row r="47" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A47" s="95"/>
-      <c r="B47" s="103"/>
+      <c r="A47" s="98"/>
+      <c r="B47" s="86"/>
       <c r="C47" s="53" t="s">
         <v>134</v>
       </c>
@@ -7721,10 +7725,10 @@
       <c r="F47" s="54"/>
     </row>
     <row r="48" spans="1:6" ht="41.4" customHeight="1">
-      <c r="A48" s="90" t="s">
+      <c r="A48" s="93" t="s">
         <v>135</v>
       </c>
-      <c r="B48" s="84" t="s">
+      <c r="B48" s="89" t="s">
         <v>136</v>
       </c>
       <c r="C48" s="48" t="s">
@@ -7739,8 +7743,8 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A49" s="91"/>
-      <c r="B49" s="85"/>
+      <c r="A49" s="94"/>
+      <c r="B49" s="88"/>
       <c r="C49" s="53" t="s">
         <v>140</v>
       </c>
@@ -7751,8 +7755,8 @@
       <c r="F49" s="54"/>
     </row>
     <row r="50" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A50" s="91"/>
-      <c r="B50" s="85"/>
+      <c r="A50" s="94"/>
+      <c r="B50" s="88"/>
       <c r="C50" s="53" t="s">
         <v>142</v>
       </c>
@@ -7763,8 +7767,8 @@
       <c r="F50" s="54"/>
     </row>
     <row r="51" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A51" s="91"/>
-      <c r="B51" s="85"/>
+      <c r="A51" s="94"/>
+      <c r="B51" s="88"/>
       <c r="C51" s="48" t="s">
         <v>144</v>
       </c>
@@ -7775,7 +7779,7 @@
       <c r="F51" s="51"/>
     </row>
     <row r="52" spans="1:6" ht="27.6" customHeight="1">
-      <c r="A52" s="92"/>
+      <c r="A52" s="95"/>
       <c r="B52" s="48" t="s">
         <v>146</v>
       </c>
@@ -7801,10 +7805,10 @@
       <c r="F53" s="51"/>
     </row>
     <row r="54" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A54" s="98" t="s">
+      <c r="A54" s="90" t="s">
         <v>151</v>
       </c>
-      <c r="B54" s="84" t="s">
+      <c r="B54" s="89" t="s">
         <v>152</v>
       </c>
       <c r="C54" s="51"/>
@@ -7815,8 +7819,8 @@
       <c r="F54" s="39"/>
     </row>
     <row r="55" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A55" s="99"/>
-      <c r="B55" s="85"/>
+      <c r="A55" s="91"/>
+      <c r="B55" s="88"/>
       <c r="C55" s="51"/>
       <c r="D55" s="39"/>
       <c r="E55" s="48" t="s">
@@ -7825,8 +7829,8 @@
       <c r="F55" s="39"/>
     </row>
     <row r="56" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A56" s="99"/>
-      <c r="B56" s="85"/>
+      <c r="A56" s="91"/>
+      <c r="B56" s="88"/>
       <c r="C56" s="51"/>
       <c r="D56" s="39"/>
       <c r="E56" s="48" t="s">
@@ -7835,8 +7839,8 @@
       <c r="F56" s="39"/>
     </row>
     <row r="57" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A57" s="99"/>
-      <c r="B57" s="85"/>
+      <c r="A57" s="91"/>
+      <c r="B57" s="88"/>
       <c r="C57" s="51"/>
       <c r="D57" s="39"/>
       <c r="E57" s="48" t="s">
@@ -7845,8 +7849,8 @@
       <c r="F57" s="39"/>
     </row>
     <row r="58" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A58" s="99"/>
-      <c r="B58" s="85"/>
+      <c r="A58" s="91"/>
+      <c r="B58" s="88"/>
       <c r="C58" s="51"/>
       <c r="D58" s="39"/>
       <c r="E58" s="48" t="s">
@@ -7855,8 +7859,8 @@
       <c r="F58" s="39"/>
     </row>
     <row r="59" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A59" s="99"/>
-      <c r="B59" s="85"/>
+      <c r="A59" s="91"/>
+      <c r="B59" s="88"/>
       <c r="C59" s="51"/>
       <c r="D59" s="39"/>
       <c r="E59" s="48" t="s">
@@ -7865,8 +7869,8 @@
       <c r="F59" s="39"/>
     </row>
     <row r="60" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A60" s="99"/>
-      <c r="B60" s="85"/>
+      <c r="A60" s="91"/>
+      <c r="B60" s="88"/>
       <c r="C60" s="51"/>
       <c r="D60" s="39"/>
       <c r="E60" s="48" t="s">
@@ -7875,8 +7879,8 @@
       <c r="F60" s="39"/>
     </row>
     <row r="61" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A61" s="99"/>
-      <c r="B61" s="85"/>
+      <c r="A61" s="91"/>
+      <c r="B61" s="88"/>
       <c r="C61" s="51"/>
       <c r="D61" s="39"/>
       <c r="E61" s="48" t="s">
@@ -7885,8 +7889,8 @@
       <c r="F61" s="39"/>
     </row>
     <row r="62" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A62" s="99"/>
-      <c r="B62" s="85"/>
+      <c r="A62" s="91"/>
+      <c r="B62" s="88"/>
       <c r="C62" s="51"/>
       <c r="D62" s="39"/>
       <c r="E62" s="48" t="s">
@@ -7895,8 +7899,8 @@
       <c r="F62" s="39"/>
     </row>
     <row r="63" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A63" s="99"/>
-      <c r="B63" s="85"/>
+      <c r="A63" s="91"/>
+      <c r="B63" s="88"/>
       <c r="C63" s="51"/>
       <c r="D63" s="39"/>
       <c r="E63" s="48" t="s">
@@ -7905,8 +7909,8 @@
       <c r="F63" s="39"/>
     </row>
     <row r="64" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A64" s="99"/>
-      <c r="B64" s="85"/>
+      <c r="A64" s="91"/>
+      <c r="B64" s="88"/>
       <c r="C64" s="51"/>
       <c r="D64" s="39"/>
       <c r="E64" s="48" t="s">
@@ -7915,8 +7919,8 @@
       <c r="F64" s="39"/>
     </row>
     <row r="65" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A65" s="99"/>
-      <c r="B65" s="85"/>
+      <c r="A65" s="91"/>
+      <c r="B65" s="88"/>
       <c r="C65" s="51"/>
       <c r="D65" s="39"/>
       <c r="E65" s="48" t="s">
@@ -7925,8 +7929,8 @@
       <c r="F65" s="39"/>
     </row>
     <row r="66" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A66" s="99"/>
-      <c r="B66" s="85"/>
+      <c r="A66" s="91"/>
+      <c r="B66" s="88"/>
       <c r="C66" s="51"/>
       <c r="D66" s="39"/>
       <c r="E66" s="48" t="s">
@@ -7935,8 +7939,8 @@
       <c r="F66" s="39"/>
     </row>
     <row r="67" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A67" s="99"/>
-      <c r="B67" s="85"/>
+      <c r="A67" s="91"/>
+      <c r="B67" s="88"/>
       <c r="C67" s="51"/>
       <c r="D67" s="39"/>
       <c r="E67" s="48" t="s">
@@ -7945,8 +7949,8 @@
       <c r="F67" s="39"/>
     </row>
     <row r="68" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A68" s="99"/>
-      <c r="B68" s="85"/>
+      <c r="A68" s="91"/>
+      <c r="B68" s="88"/>
       <c r="C68" s="51"/>
       <c r="D68" s="39"/>
       <c r="E68" s="48" t="s">
@@ -7955,8 +7959,8 @@
       <c r="F68" s="39"/>
     </row>
     <row r="69" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A69" s="99"/>
-      <c r="B69" s="85"/>
+      <c r="A69" s="91"/>
+      <c r="B69" s="88"/>
       <c r="C69" s="51"/>
       <c r="D69" s="39"/>
       <c r="E69" s="48" t="s">
@@ -7965,8 +7969,8 @@
       <c r="F69" s="39"/>
     </row>
     <row r="70" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A70" s="99"/>
-      <c r="B70" s="85"/>
+      <c r="A70" s="91"/>
+      <c r="B70" s="88"/>
       <c r="C70" s="51"/>
       <c r="D70" s="39"/>
       <c r="E70" s="48" t="s">
@@ -7975,8 +7979,8 @@
       <c r="F70" s="39"/>
     </row>
     <row r="71" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A71" s="99"/>
-      <c r="B71" s="84" t="s">
+      <c r="A71" s="91"/>
+      <c r="B71" s="89" t="s">
         <v>170</v>
       </c>
       <c r="C71" s="55"/>
@@ -7987,8 +7991,8 @@
       <c r="F71" s="39"/>
     </row>
     <row r="72" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A72" s="99"/>
-      <c r="B72" s="85"/>
+      <c r="A72" s="91"/>
+      <c r="B72" s="88"/>
       <c r="C72" s="55"/>
       <c r="D72" s="39"/>
       <c r="E72" s="48" t="s">
@@ -7997,8 +8001,8 @@
       <c r="F72" s="39"/>
     </row>
     <row r="73" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A73" s="99"/>
-      <c r="B73" s="85"/>
+      <c r="A73" s="91"/>
+      <c r="B73" s="88"/>
       <c r="C73" s="55"/>
       <c r="D73" s="39"/>
       <c r="E73" s="48" t="s">
@@ -8007,8 +8011,8 @@
       <c r="F73" s="39"/>
     </row>
     <row r="74" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A74" s="99"/>
-      <c r="B74" s="85"/>
+      <c r="A74" s="91"/>
+      <c r="B74" s="88"/>
       <c r="C74" s="55"/>
       <c r="D74" s="39"/>
       <c r="E74" s="48" t="s">
@@ -8017,8 +8021,8 @@
       <c r="F74" s="39"/>
     </row>
     <row r="75" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A75" s="99"/>
-      <c r="B75" s="85"/>
+      <c r="A75" s="91"/>
+      <c r="B75" s="88"/>
       <c r="C75" s="55"/>
       <c r="D75" s="39"/>
       <c r="E75" s="48" t="s">
@@ -8027,8 +8031,8 @@
       <c r="F75" s="39"/>
     </row>
     <row r="76" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A76" s="99"/>
-      <c r="B76" s="85"/>
+      <c r="A76" s="91"/>
+      <c r="B76" s="88"/>
       <c r="C76" s="55"/>
       <c r="D76" s="39"/>
       <c r="E76" s="48" t="s">
@@ -8037,8 +8041,8 @@
       <c r="F76" s="39"/>
     </row>
     <row r="77" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A77" s="99"/>
-      <c r="B77" s="85"/>
+      <c r="A77" s="91"/>
+      <c r="B77" s="88"/>
       <c r="C77" s="55"/>
       <c r="D77" s="39"/>
       <c r="E77" s="48" t="s">
@@ -8047,8 +8051,8 @@
       <c r="F77" s="39"/>
     </row>
     <row r="78" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A78" s="99"/>
-      <c r="B78" s="85"/>
+      <c r="A78" s="91"/>
+      <c r="B78" s="88"/>
       <c r="C78" s="55"/>
       <c r="D78" s="39"/>
       <c r="E78" s="48" t="s">
@@ -8057,8 +8061,8 @@
       <c r="F78" s="39"/>
     </row>
     <row r="79" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A79" s="99"/>
-      <c r="B79" s="85"/>
+      <c r="A79" s="91"/>
+      <c r="B79" s="88"/>
       <c r="C79" s="55"/>
       <c r="D79" s="39"/>
       <c r="E79" s="48" t="s">
@@ -8067,8 +8071,8 @@
       <c r="F79" s="39"/>
     </row>
     <row r="80" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A80" s="99"/>
-      <c r="B80" s="85"/>
+      <c r="A80" s="91"/>
+      <c r="B80" s="88"/>
       <c r="C80" s="55"/>
       <c r="D80" s="39"/>
       <c r="E80" s="48" t="s">
@@ -8077,8 +8081,8 @@
       <c r="F80" s="39"/>
     </row>
     <row r="81" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A81" s="99"/>
-      <c r="B81" s="85"/>
+      <c r="A81" s="91"/>
+      <c r="B81" s="88"/>
       <c r="C81" s="55"/>
       <c r="D81" s="39"/>
       <c r="E81" s="48" t="s">
@@ -8087,8 +8091,8 @@
       <c r="F81" s="39"/>
     </row>
     <row r="82" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A82" s="99"/>
-      <c r="B82" s="84" t="s">
+      <c r="A82" s="91"/>
+      <c r="B82" s="89" t="s">
         <v>105</v>
       </c>
       <c r="C82" s="55"/>
@@ -8096,143 +8100,143 @@
       <c r="E82" s="48" t="s">
         <v>182</v>
       </c>
-      <c r="F82" s="84" t="s">
+      <c r="F82" s="89" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A83" s="99"/>
-      <c r="B83" s="85"/>
+      <c r="A83" s="91"/>
+      <c r="B83" s="88"/>
       <c r="C83" s="55"/>
       <c r="D83" s="39"/>
       <c r="E83" s="48" t="s">
         <v>184</v>
       </c>
-      <c r="F83" s="85"/>
+      <c r="F83" s="88"/>
     </row>
     <row r="84" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A84" s="99"/>
-      <c r="B84" s="85"/>
+      <c r="A84" s="91"/>
+      <c r="B84" s="88"/>
       <c r="C84" s="55"/>
       <c r="D84" s="39"/>
       <c r="E84" s="48" t="s">
         <v>172</v>
       </c>
-      <c r="F84" s="85"/>
+      <c r="F84" s="88"/>
     </row>
     <row r="85" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A85" s="99"/>
-      <c r="B85" s="85"/>
+      <c r="A85" s="91"/>
+      <c r="B85" s="88"/>
       <c r="C85" s="55"/>
       <c r="D85" s="39"/>
       <c r="E85" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="F85" s="85"/>
+      <c r="F85" s="88"/>
     </row>
     <row r="86" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A86" s="99"/>
-      <c r="B86" s="85"/>
+      <c r="A86" s="91"/>
+      <c r="B86" s="88"/>
       <c r="C86" s="55"/>
       <c r="D86" s="39"/>
       <c r="E86" s="48" t="s">
         <v>172</v>
       </c>
-      <c r="F86" s="85"/>
+      <c r="F86" s="88"/>
     </row>
     <row r="87" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A87" s="99"/>
-      <c r="B87" s="85"/>
+      <c r="A87" s="91"/>
+      <c r="B87" s="88"/>
       <c r="C87" s="55"/>
       <c r="D87" s="39"/>
       <c r="E87" s="48" t="s">
         <v>173</v>
       </c>
-      <c r="F87" s="85"/>
+      <c r="F87" s="88"/>
     </row>
     <row r="88" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A88" s="99"/>
-      <c r="B88" s="85"/>
+      <c r="A88" s="91"/>
+      <c r="B88" s="88"/>
       <c r="C88" s="55"/>
       <c r="D88" s="39"/>
       <c r="E88" s="48" t="s">
         <v>174</v>
       </c>
-      <c r="F88" s="85"/>
+      <c r="F88" s="88"/>
     </row>
     <row r="89" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A89" s="99"/>
-      <c r="B89" s="85"/>
+      <c r="A89" s="91"/>
+      <c r="B89" s="88"/>
       <c r="C89" s="55"/>
       <c r="D89" s="39"/>
       <c r="E89" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="F89" s="85"/>
+      <c r="F89" s="88"/>
     </row>
     <row r="90" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A90" s="99"/>
-      <c r="B90" s="85"/>
+      <c r="A90" s="91"/>
+      <c r="B90" s="88"/>
       <c r="C90" s="55"/>
       <c r="D90" s="39"/>
       <c r="E90" s="48" t="s">
         <v>176</v>
       </c>
-      <c r="F90" s="85"/>
+      <c r="F90" s="88"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A91" s="99"/>
-      <c r="B91" s="85"/>
+      <c r="A91" s="91"/>
+      <c r="B91" s="88"/>
       <c r="C91" s="55"/>
       <c r="D91" s="39"/>
       <c r="E91" s="48" t="s">
         <v>177</v>
       </c>
-      <c r="F91" s="85"/>
+      <c r="F91" s="88"/>
     </row>
     <row r="92" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A92" s="99"/>
-      <c r="B92" s="85"/>
+      <c r="A92" s="91"/>
+      <c r="B92" s="88"/>
       <c r="C92" s="55"/>
       <c r="D92" s="39"/>
       <c r="E92" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="F92" s="85"/>
+      <c r="F92" s="88"/>
     </row>
     <row r="93" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A93" s="99"/>
-      <c r="B93" s="85"/>
+      <c r="A93" s="91"/>
+      <c r="B93" s="88"/>
       <c r="C93" s="55"/>
       <c r="D93" s="39"/>
       <c r="E93" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="F93" s="85"/>
+      <c r="F93" s="88"/>
     </row>
     <row r="94" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A94" s="99"/>
-      <c r="B94" s="85"/>
+      <c r="A94" s="91"/>
+      <c r="B94" s="88"/>
       <c r="C94" s="55"/>
       <c r="D94" s="39"/>
       <c r="E94" s="48" t="s">
         <v>180</v>
       </c>
-      <c r="F94" s="85"/>
+      <c r="F94" s="88"/>
     </row>
     <row r="95" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A95" s="99"/>
-      <c r="B95" s="85"/>
+      <c r="A95" s="91"/>
+      <c r="B95" s="88"/>
       <c r="C95" s="55"/>
       <c r="D95" s="39"/>
       <c r="E95" s="48" t="s">
         <v>181</v>
       </c>
-      <c r="F95" s="85"/>
+      <c r="F95" s="88"/>
     </row>
     <row r="96" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A96" s="99"/>
-      <c r="B96" s="84" t="s">
+      <c r="A96" s="91"/>
+      <c r="B96" s="89" t="s">
         <v>186</v>
       </c>
       <c r="C96" s="55"/>
@@ -8240,87 +8244,87 @@
       <c r="E96" s="48" t="s">
         <v>187</v>
       </c>
-      <c r="F96" s="85"/>
+      <c r="F96" s="88"/>
     </row>
     <row r="97" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A97" s="99"/>
-      <c r="B97" s="85"/>
+      <c r="A97" s="91"/>
+      <c r="B97" s="88"/>
       <c r="C97" s="55"/>
       <c r="D97" s="39"/>
       <c r="E97" s="48" t="s">
         <v>188</v>
       </c>
-      <c r="F97" s="85"/>
+      <c r="F97" s="88"/>
     </row>
     <row r="98" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A98" s="99"/>
-      <c r="B98" s="85"/>
+      <c r="A98" s="91"/>
+      <c r="B98" s="88"/>
       <c r="C98" s="55"/>
       <c r="D98" s="39"/>
       <c r="E98" s="48" t="s">
         <v>189</v>
       </c>
-      <c r="F98" s="85"/>
+      <c r="F98" s="88"/>
     </row>
     <row r="99" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A99" s="99"/>
-      <c r="B99" s="85"/>
+      <c r="A99" s="91"/>
+      <c r="B99" s="88"/>
       <c r="C99" s="55"/>
       <c r="D99" s="39"/>
       <c r="E99" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="F99" s="85"/>
+      <c r="F99" s="88"/>
     </row>
     <row r="100" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A100" s="99"/>
-      <c r="B100" s="85"/>
+      <c r="A100" s="91"/>
+      <c r="B100" s="88"/>
       <c r="C100" s="55"/>
       <c r="D100" s="39"/>
       <c r="E100" s="48" t="s">
         <v>191</v>
       </c>
-      <c r="F100" s="85"/>
+      <c r="F100" s="88"/>
     </row>
     <row r="101" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A101" s="99"/>
-      <c r="B101" s="85"/>
+      <c r="A101" s="91"/>
+      <c r="B101" s="88"/>
       <c r="C101" s="55"/>
       <c r="D101" s="39"/>
       <c r="E101" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="F101" s="85"/>
+      <c r="F101" s="88"/>
     </row>
     <row r="102" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A102" s="99"/>
-      <c r="B102" s="85"/>
+      <c r="A102" s="91"/>
+      <c r="B102" s="88"/>
       <c r="C102" s="55"/>
       <c r="D102" s="39"/>
       <c r="E102" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="F102" s="85"/>
+      <c r="F102" s="88"/>
     </row>
     <row r="103" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A103" s="99"/>
-      <c r="B103" s="85"/>
+      <c r="A103" s="91"/>
+      <c r="B103" s="88"/>
       <c r="C103" s="55"/>
       <c r="D103" s="39"/>
       <c r="E103" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="F103" s="85"/>
+      <c r="F103" s="88"/>
     </row>
     <row r="104" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A104" s="100"/>
-      <c r="B104" s="85"/>
+      <c r="A104" s="92"/>
+      <c r="B104" s="88"/>
       <c r="C104" s="55"/>
       <c r="D104" s="39"/>
       <c r="E104" s="48" t="s">
         <v>195</v>
       </c>
-      <c r="F104" s="85"/>
+      <c r="F104" s="88"/>
     </row>
     <row r="105" spans="1:6" ht="13.5" customHeight="1">
       <c r="A105" s="56"/>
@@ -8332,6 +8336,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="C35:C40"/>
+    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="F82:F104"/>
+    <mergeCell ref="C25:C34"/>
+    <mergeCell ref="C17:C21"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B41:B47"/>
     <mergeCell ref="F25:F34"/>
@@ -8348,12 +8358,6 @@
     <mergeCell ref="B82:B95"/>
     <mergeCell ref="A15:A40"/>
     <mergeCell ref="B15:B34"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="C35:C40"/>
-    <mergeCell ref="C3:C9"/>
-    <mergeCell ref="F82:F104"/>
-    <mergeCell ref="C25:C34"/>
-    <mergeCell ref="C17:C21"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180599999999998" footer="0.51180599999999998"/>
@@ -8382,14 +8386,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.05" customHeight="1">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="84" t="s">
         <v>196</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
     </row>
     <row r="2" spans="1:6" ht="26.1" customHeight="1">
       <c r="A2" s="46" t="s">
@@ -8412,10 +8416,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="96" t="s">
         <v>123</v>
       </c>
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="85" t="s">
         <v>124</v>
       </c>
       <c r="C3" s="53" t="s">
@@ -8426,8 +8430,8 @@
       <c r="F3" s="54"/>
     </row>
     <row r="4" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A4" s="94"/>
-      <c r="B4" s="103"/>
+      <c r="A4" s="97"/>
+      <c r="B4" s="86"/>
       <c r="C4" s="53" t="s">
         <v>127</v>
       </c>
@@ -8436,8 +8440,8 @@
       <c r="F4" s="54"/>
     </row>
     <row r="5" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A5" s="94"/>
-      <c r="B5" s="103"/>
+      <c r="A5" s="97"/>
+      <c r="B5" s="86"/>
       <c r="C5" s="53" t="s">
         <v>129</v>
       </c>
@@ -8446,8 +8450,8 @@
       <c r="F5" s="54"/>
     </row>
     <row r="6" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A6" s="94"/>
-      <c r="B6" s="103"/>
+      <c r="A6" s="97"/>
+      <c r="B6" s="86"/>
       <c r="C6" s="53" t="s">
         <v>130</v>
       </c>
@@ -8456,8 +8460,8 @@
       <c r="F6" s="54"/>
     </row>
     <row r="7" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A7" s="94"/>
-      <c r="B7" s="103"/>
+      <c r="A7" s="97"/>
+      <c r="B7" s="86"/>
       <c r="C7" s="53" t="s">
         <v>197</v>
       </c>
@@ -8466,8 +8470,8 @@
       <c r="F7" s="54"/>
     </row>
     <row r="8" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A8" s="94"/>
-      <c r="B8" s="103"/>
+      <c r="A8" s="97"/>
+      <c r="B8" s="86"/>
       <c r="C8" s="53" t="s">
         <v>133</v>
       </c>
@@ -8476,8 +8480,8 @@
       <c r="F8" s="54"/>
     </row>
     <row r="9" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A9" s="95"/>
-      <c r="B9" s="103"/>
+      <c r="A9" s="98"/>
+      <c r="B9" s="86"/>
       <c r="C9" s="53" t="s">
         <v>134</v>
       </c>
@@ -8512,8 +8516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
@@ -8528,14 +8532,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.05" customHeight="1">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="84" t="s">
         <v>198</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
     </row>
     <row r="2" spans="1:6" ht="26.1" customHeight="1">
       <c r="A2" s="44" t="s">
@@ -8558,10 +8562,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="87" t="s">
         <v>76</v>
       </c>
       <c r="C3" s="49" t="s">
@@ -8571,13 +8575,13 @@
       <c r="E3" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="F3" s="89" t="s">
+      <c r="F3" s="87" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A4" s="85"/>
-      <c r="B4" s="85"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="88"/>
       <c r="C4" s="49" t="s">
         <v>200</v>
       </c>
@@ -8588,8 +8592,8 @@
       <c r="F4" s="106"/>
     </row>
     <row r="5" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A5" s="85"/>
-      <c r="B5" s="85"/>
+      <c r="A5" s="88"/>
+      <c r="B5" s="88"/>
       <c r="C5" s="49" t="s">
         <v>202</v>
       </c>
@@ -8600,8 +8604,8 @@
       <c r="F5" s="106"/>
     </row>
     <row r="6" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A6" s="85"/>
-      <c r="B6" s="89" t="s">
+      <c r="A6" s="88"/>
+      <c r="B6" s="87" t="s">
         <v>204</v>
       </c>
       <c r="C6" s="50"/>
@@ -8614,8 +8618,8 @@
       <c r="F6" s="106"/>
     </row>
     <row r="7" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A7" s="85"/>
-      <c r="B7" s="85"/>
+      <c r="A7" s="88"/>
+      <c r="B7" s="88"/>
       <c r="C7" s="50"/>
       <c r="D7" s="49" t="s">
         <v>207</v>
@@ -11426,8 +11430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV135"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="D127" sqref="D127"/>
+    <sheetView showGridLines="0" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="C123" sqref="C123:C128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
@@ -11443,15 +11447,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="114"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="111"/>
     </row>
     <row r="2" spans="1:7" ht="25.05" customHeight="1">
       <c r="A2" s="45" t="s">
@@ -11477,16 +11481,16 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="25.05" customHeight="1">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="96" t="s">
         <v>231</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="99" t="s">
         <v>49</v>
       </c>
       <c r="E3" s="46" t="s">
@@ -11498,10 +11502,10 @@
       <c r="G3" s="47"/>
     </row>
     <row r="4" spans="1:7" ht="25.05" customHeight="1">
-      <c r="A4" s="99"/>
-      <c r="B4" s="94"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
+      <c r="A4" s="91"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
       <c r="E4" s="46" t="s">
         <v>52</v>
       </c>
@@ -11511,10 +11515,10 @@
       <c r="G4" s="47"/>
     </row>
     <row r="5" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A5" s="99"/>
-      <c r="B5" s="94"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
+      <c r="A5" s="91"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="113"/>
       <c r="E5" s="46" t="s">
         <v>54</v>
       </c>
@@ -11524,10 +11528,10 @@
       <c r="G5" s="47"/>
     </row>
     <row r="6" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A6" s="99"/>
-      <c r="B6" s="94"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
+      <c r="A6" s="91"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
       <c r="E6" s="46" t="s">
         <v>56</v>
       </c>
@@ -11537,10 +11541,10 @@
       <c r="G6" s="47"/>
     </row>
     <row r="7" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A7" s="99"/>
-      <c r="B7" s="94"/>
-      <c r="C7" s="111"/>
-      <c r="D7" s="111"/>
+      <c r="A7" s="91"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
       <c r="E7" s="46" t="s">
         <v>58</v>
       </c>
@@ -11550,10 +11554,10 @@
       <c r="G7" s="47"/>
     </row>
     <row r="8" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A8" s="99"/>
-      <c r="B8" s="94"/>
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
+      <c r="A8" s="91"/>
+      <c r="B8" s="97"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
       <c r="E8" s="46" t="s">
         <v>60</v>
       </c>
@@ -11563,10 +11567,10 @@
       <c r="G8" s="47"/>
     </row>
     <row r="9" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A9" s="99"/>
-      <c r="B9" s="94"/>
-      <c r="C9" s="111"/>
-      <c r="D9" s="112"/>
+      <c r="A9" s="91"/>
+      <c r="B9" s="97"/>
+      <c r="C9" s="113"/>
+      <c r="D9" s="114"/>
       <c r="E9" s="46" t="s">
         <v>62</v>
       </c>
@@ -11576,9 +11580,9 @@
       <c r="G9" s="47"/>
     </row>
     <row r="10" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A10" s="99"/>
-      <c r="B10" s="94"/>
-      <c r="C10" s="111"/>
+      <c r="A10" s="91"/>
+      <c r="B10" s="97"/>
+      <c r="C10" s="113"/>
       <c r="D10" s="46" t="s">
         <v>64</v>
       </c>
@@ -11589,9 +11593,9 @@
       <c r="G10" s="47"/>
     </row>
     <row r="11" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A11" s="99"/>
-      <c r="B11" s="94"/>
-      <c r="C11" s="111"/>
+      <c r="A11" s="91"/>
+      <c r="B11" s="97"/>
+      <c r="C11" s="113"/>
       <c r="D11" s="46" t="s">
         <v>66</v>
       </c>
@@ -11602,9 +11606,9 @@
       <c r="G11" s="47"/>
     </row>
     <row r="12" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A12" s="99"/>
-      <c r="B12" s="94"/>
-      <c r="C12" s="112"/>
+      <c r="A12" s="91"/>
+      <c r="B12" s="97"/>
+      <c r="C12" s="114"/>
       <c r="D12" s="46" t="s">
         <v>68</v>
       </c>
@@ -11615,9 +11619,9 @@
       <c r="G12" s="47"/>
     </row>
     <row r="13" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A13" s="99"/>
-      <c r="B13" s="94"/>
-      <c r="C13" s="96" t="s">
+      <c r="A13" s="91"/>
+      <c r="B13" s="97"/>
+      <c r="C13" s="102" t="s">
         <v>70</v>
       </c>
       <c r="D13" s="46" t="s">
@@ -11630,9 +11634,9 @@
       <c r="G13" s="47"/>
     </row>
     <row r="14" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A14" s="99"/>
-      <c r="B14" s="95"/>
-      <c r="C14" s="113"/>
+      <c r="A14" s="91"/>
+      <c r="B14" s="98"/>
+      <c r="C14" s="115"/>
       <c r="D14" s="46" t="s">
         <v>73</v>
       </c>
@@ -11643,11 +11647,11 @@
       <c r="G14" s="47"/>
     </row>
     <row r="15" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A15" s="99"/>
-      <c r="B15" s="84" t="s">
+      <c r="A15" s="91"/>
+      <c r="B15" s="89" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="84" t="s">
+      <c r="C15" s="89" t="s">
         <v>76</v>
       </c>
       <c r="D15" s="49" t="s">
@@ -11660,9 +11664,9 @@
       <c r="G15" s="50"/>
     </row>
     <row r="16" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A16" s="99"/>
-      <c r="B16" s="85"/>
-      <c r="C16" s="85"/>
+      <c r="A16" s="91"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="88"/>
       <c r="D16" s="49" t="s">
         <v>80</v>
       </c>
@@ -11673,10 +11677,10 @@
       <c r="G16" s="50"/>
     </row>
     <row r="17" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A17" s="99"/>
-      <c r="B17" s="85"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="84" t="s">
+      <c r="A17" s="91"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="89" t="s">
         <v>82</v>
       </c>
       <c r="E17" s="52" t="s">
@@ -11690,10 +11694,10 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A18" s="99"/>
-      <c r="B18" s="85"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="85"/>
+      <c r="A18" s="91"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="88"/>
       <c r="E18" s="52" t="s">
         <v>86</v>
       </c>
@@ -11705,10 +11709,10 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A19" s="99"/>
-      <c r="B19" s="85"/>
-      <c r="C19" s="85"/>
-      <c r="D19" s="85"/>
+      <c r="A19" s="91"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="88"/>
       <c r="E19" s="52" t="s">
         <v>89</v>
       </c>
@@ -11720,10 +11724,10 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A20" s="99"/>
-      <c r="B20" s="85"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="85"/>
+      <c r="A20" s="91"/>
+      <c r="B20" s="88"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="88"/>
       <c r="E20" s="52" t="s">
         <v>92</v>
       </c>
@@ -11735,10 +11739,10 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A21" s="99"/>
-      <c r="B21" s="85"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="85"/>
+      <c r="A21" s="91"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="88"/>
       <c r="E21" s="52" t="s">
         <v>95</v>
       </c>
@@ -11748,9 +11752,9 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A22" s="99"/>
-      <c r="B22" s="85"/>
-      <c r="C22" s="85"/>
+      <c r="A22" s="91"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="88"/>
       <c r="D22" s="49" t="s">
         <v>97</v>
       </c>
@@ -11761,9 +11765,9 @@
       <c r="G22" s="50"/>
     </row>
     <row r="23" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A23" s="99"/>
-      <c r="B23" s="85"/>
-      <c r="C23" s="85"/>
+      <c r="A23" s="91"/>
+      <c r="B23" s="88"/>
+      <c r="C23" s="88"/>
       <c r="D23" s="49" t="s">
         <v>99</v>
       </c>
@@ -11772,9 +11776,9 @@
       <c r="G23" s="50"/>
     </row>
     <row r="24" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A24" s="99"/>
-      <c r="B24" s="85"/>
-      <c r="C24" s="85"/>
+      <c r="A24" s="91"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="88"/>
       <c r="D24" s="49" t="s">
         <v>100</v>
       </c>
@@ -11785,126 +11789,126 @@
       <c r="G24" s="72"/>
     </row>
     <row r="25" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A25" s="99"/>
-      <c r="B25" s="85"/>
-      <c r="C25" s="85"/>
-      <c r="D25" s="89" t="s">
+      <c r="A25" s="91"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="87" t="s">
         <v>102</v>
       </c>
       <c r="E25" s="49" t="s">
         <v>103</v>
       </c>
       <c r="F25" s="50"/>
-      <c r="G25" s="89" t="s">
+      <c r="G25" s="87" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A26" s="99"/>
-      <c r="B26" s="85"/>
-      <c r="C26" s="85"/>
-      <c r="D26" s="85"/>
+      <c r="A26" s="91"/>
+      <c r="B26" s="88"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="88"/>
       <c r="E26" s="49" t="s">
         <v>104</v>
       </c>
       <c r="F26" s="50"/>
-      <c r="G26" s="85"/>
+      <c r="G26" s="88"/>
     </row>
     <row r="27" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A27" s="99"/>
-      <c r="B27" s="85"/>
-      <c r="C27" s="85"/>
-      <c r="D27" s="85"/>
+      <c r="A27" s="91"/>
+      <c r="B27" s="88"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="88"/>
       <c r="E27" s="49" t="s">
         <v>105</v>
       </c>
       <c r="F27" s="50"/>
-      <c r="G27" s="85"/>
+      <c r="G27" s="88"/>
     </row>
     <row r="28" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A28" s="99"/>
-      <c r="B28" s="85"/>
-      <c r="C28" s="85"/>
-      <c r="D28" s="85"/>
+      <c r="A28" s="91"/>
+      <c r="B28" s="88"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="88"/>
       <c r="E28" s="49" t="s">
         <v>106</v>
       </c>
       <c r="F28" s="50"/>
-      <c r="G28" s="85"/>
+      <c r="G28" s="88"/>
     </row>
     <row r="29" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A29" s="99"/>
-      <c r="B29" s="85"/>
-      <c r="C29" s="85"/>
-      <c r="D29" s="85"/>
+      <c r="A29" s="91"/>
+      <c r="B29" s="88"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="88"/>
       <c r="E29" s="49" t="s">
         <v>107</v>
       </c>
       <c r="F29" s="50"/>
-      <c r="G29" s="85"/>
+      <c r="G29" s="88"/>
     </row>
     <row r="30" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A30" s="99"/>
-      <c r="B30" s="85"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="85"/>
+      <c r="A30" s="91"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="88"/>
       <c r="E30" s="49" t="s">
         <v>108</v>
       </c>
       <c r="F30" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="G30" s="85"/>
+      <c r="G30" s="88"/>
     </row>
     <row r="31" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A31" s="99"/>
-      <c r="B31" s="85"/>
-      <c r="C31" s="85"/>
-      <c r="D31" s="85"/>
+      <c r="A31" s="91"/>
+      <c r="B31" s="88"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="88"/>
       <c r="E31" s="49" t="s">
         <v>110</v>
       </c>
       <c r="F31" s="50"/>
-      <c r="G31" s="85"/>
+      <c r="G31" s="88"/>
     </row>
     <row r="32" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A32" s="99"/>
-      <c r="B32" s="85"/>
-      <c r="C32" s="85"/>
-      <c r="D32" s="85"/>
+      <c r="A32" s="91"/>
+      <c r="B32" s="88"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="88"/>
       <c r="E32" s="49" t="s">
         <v>111</v>
       </c>
       <c r="F32" s="50"/>
-      <c r="G32" s="85"/>
+      <c r="G32" s="88"/>
     </row>
     <row r="33" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A33" s="99"/>
-      <c r="B33" s="85"/>
-      <c r="C33" s="85"/>
-      <c r="D33" s="85"/>
+      <c r="A33" s="91"/>
+      <c r="B33" s="88"/>
+      <c r="C33" s="88"/>
+      <c r="D33" s="88"/>
       <c r="E33" s="49" t="s">
         <v>112</v>
       </c>
       <c r="F33" s="50"/>
-      <c r="G33" s="85"/>
+      <c r="G33" s="88"/>
     </row>
     <row r="34" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A34" s="99"/>
-      <c r="B34" s="85"/>
-      <c r="C34" s="85"/>
-      <c r="D34" s="85"/>
+      <c r="A34" s="91"/>
+      <c r="B34" s="88"/>
+      <c r="C34" s="88"/>
+      <c r="D34" s="88"/>
       <c r="E34" s="49" t="s">
         <v>113</v>
       </c>
       <c r="F34" s="50"/>
-      <c r="G34" s="85"/>
+      <c r="G34" s="88"/>
     </row>
     <row r="35" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A35" s="99"/>
-      <c r="B35" s="85"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="84" t="s">
+      <c r="A35" s="91"/>
+      <c r="B35" s="88"/>
+      <c r="C35" s="88"/>
+      <c r="D35" s="89" t="s">
         <v>114</v>
       </c>
       <c r="E35" s="52" t="s">
@@ -11914,10 +11918,10 @@
       <c r="G35" s="51"/>
     </row>
     <row r="36" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A36" s="99"/>
-      <c r="B36" s="85"/>
-      <c r="C36" s="85"/>
-      <c r="D36" s="85"/>
+      <c r="A36" s="91"/>
+      <c r="B36" s="88"/>
+      <c r="C36" s="88"/>
+      <c r="D36" s="88"/>
       <c r="E36" s="52" t="s">
         <v>116</v>
       </c>
@@ -11925,10 +11929,10 @@
       <c r="G36" s="51"/>
     </row>
     <row r="37" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A37" s="99"/>
-      <c r="B37" s="85"/>
-      <c r="C37" s="85"/>
-      <c r="D37" s="85"/>
+      <c r="A37" s="91"/>
+      <c r="B37" s="88"/>
+      <c r="C37" s="88"/>
+      <c r="D37" s="88"/>
       <c r="E37" s="52" t="s">
         <v>117</v>
       </c>
@@ -11936,10 +11940,10 @@
       <c r="G37" s="51"/>
     </row>
     <row r="38" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A38" s="99"/>
-      <c r="B38" s="85"/>
-      <c r="C38" s="85"/>
-      <c r="D38" s="85"/>
+      <c r="A38" s="91"/>
+      <c r="B38" s="88"/>
+      <c r="C38" s="88"/>
+      <c r="D38" s="88"/>
       <c r="E38" s="52" t="s">
         <v>118</v>
       </c>
@@ -11947,10 +11951,10 @@
       <c r="G38" s="51"/>
     </row>
     <row r="39" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A39" s="99"/>
-      <c r="B39" s="85"/>
-      <c r="C39" s="85"/>
-      <c r="D39" s="85"/>
+      <c r="A39" s="91"/>
+      <c r="B39" s="88"/>
+      <c r="C39" s="88"/>
+      <c r="D39" s="88"/>
       <c r="E39" s="52" t="s">
         <v>119</v>
       </c>
@@ -11958,10 +11962,10 @@
       <c r="G39" s="51"/>
     </row>
     <row r="40" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A40" s="99"/>
-      <c r="B40" s="85"/>
-      <c r="C40" s="85"/>
-      <c r="D40" s="85"/>
+      <c r="A40" s="91"/>
+      <c r="B40" s="88"/>
+      <c r="C40" s="88"/>
+      <c r="D40" s="88"/>
       <c r="E40" s="52" t="s">
         <v>120</v>
       </c>
@@ -11973,11 +11977,11 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A41" s="99"/>
-      <c r="B41" s="102" t="s">
+      <c r="A41" s="91"/>
+      <c r="B41" s="85" t="s">
         <v>123</v>
       </c>
-      <c r="C41" s="102" t="s">
+      <c r="C41" s="85" t="s">
         <v>124</v>
       </c>
       <c r="D41" s="53" t="s">
@@ -11990,9 +11994,9 @@
       <c r="G41" s="54"/>
     </row>
     <row r="42" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A42" s="99"/>
-      <c r="B42" s="103"/>
-      <c r="C42" s="103"/>
+      <c r="A42" s="91"/>
+      <c r="B42" s="86"/>
+      <c r="C42" s="86"/>
       <c r="D42" s="53" t="s">
         <v>127</v>
       </c>
@@ -12003,9 +12007,9 @@
       <c r="G42" s="54"/>
     </row>
     <row r="43" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A43" s="99"/>
-      <c r="B43" s="103"/>
-      <c r="C43" s="103"/>
+      <c r="A43" s="91"/>
+      <c r="B43" s="86"/>
+      <c r="C43" s="86"/>
       <c r="D43" s="53" t="s">
         <v>129</v>
       </c>
@@ -12014,9 +12018,9 @@
       <c r="G43" s="54"/>
     </row>
     <row r="44" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A44" s="99"/>
-      <c r="B44" s="103"/>
-      <c r="C44" s="103"/>
+      <c r="A44" s="91"/>
+      <c r="B44" s="86"/>
+      <c r="C44" s="86"/>
       <c r="D44" s="53" t="s">
         <v>130</v>
       </c>
@@ -12025,9 +12029,9 @@
       <c r="G44" s="54"/>
     </row>
     <row r="45" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A45" s="99"/>
-      <c r="B45" s="103"/>
-      <c r="C45" s="103"/>
+      <c r="A45" s="91"/>
+      <c r="B45" s="86"/>
+      <c r="C45" s="86"/>
       <c r="D45" s="53" t="s">
         <v>131</v>
       </c>
@@ -12038,9 +12042,9 @@
       <c r="G45" s="54"/>
     </row>
     <row r="46" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A46" s="99"/>
-      <c r="B46" s="103"/>
-      <c r="C46" s="103"/>
+      <c r="A46" s="91"/>
+      <c r="B46" s="86"/>
+      <c r="C46" s="86"/>
       <c r="D46" s="53" t="s">
         <v>133</v>
       </c>
@@ -12049,9 +12053,9 @@
       <c r="G46" s="54"/>
     </row>
     <row r="47" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A47" s="99"/>
-      <c r="B47" s="103"/>
-      <c r="C47" s="103"/>
+      <c r="A47" s="91"/>
+      <c r="B47" s="86"/>
+      <c r="C47" s="86"/>
       <c r="D47" s="53" t="s">
         <v>134</v>
       </c>
@@ -12060,11 +12064,11 @@
       <c r="G47" s="54"/>
     </row>
     <row r="48" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A48" s="99"/>
-      <c r="B48" s="84" t="s">
+      <c r="A48" s="91"/>
+      <c r="B48" s="89" t="s">
         <v>135</v>
       </c>
-      <c r="C48" s="84" t="s">
+      <c r="C48" s="89" t="s">
         <v>136</v>
       </c>
       <c r="D48" s="48" t="s">
@@ -12079,9 +12083,9 @@
       </c>
     </row>
     <row r="49" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A49" s="99"/>
-      <c r="B49" s="85"/>
-      <c r="C49" s="85"/>
+      <c r="A49" s="91"/>
+      <c r="B49" s="88"/>
+      <c r="C49" s="88"/>
       <c r="D49" s="53" t="s">
         <v>140</v>
       </c>
@@ -12092,9 +12096,9 @@
       <c r="G49" s="54"/>
     </row>
     <row r="50" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A50" s="99"/>
-      <c r="B50" s="85"/>
-      <c r="C50" s="85"/>
+      <c r="A50" s="91"/>
+      <c r="B50" s="88"/>
+      <c r="C50" s="88"/>
       <c r="D50" s="53" t="s">
         <v>142</v>
       </c>
@@ -12105,9 +12109,9 @@
       <c r="G50" s="54"/>
     </row>
     <row r="51" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A51" s="99"/>
-      <c r="B51" s="85"/>
-      <c r="C51" s="85"/>
+      <c r="A51" s="91"/>
+      <c r="B51" s="88"/>
+      <c r="C51" s="88"/>
       <c r="D51" s="48" t="s">
         <v>144</v>
       </c>
@@ -12118,8 +12122,8 @@
       <c r="G51" s="51"/>
     </row>
     <row r="52" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A52" s="99"/>
-      <c r="B52" s="85"/>
+      <c r="A52" s="91"/>
+      <c r="B52" s="88"/>
       <c r="C52" s="48" t="s">
         <v>146</v>
       </c>
@@ -12131,7 +12135,7 @@
       <c r="G52" s="51"/>
     </row>
     <row r="53" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A53" s="99"/>
+      <c r="A53" s="91"/>
       <c r="B53" s="48" t="s">
         <v>148</v>
       </c>
@@ -12146,11 +12150,11 @@
       <c r="G53" s="51"/>
     </row>
     <row r="54" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A54" s="99"/>
+      <c r="A54" s="91"/>
       <c r="B54" s="107" t="s">
         <v>151</v>
       </c>
-      <c r="C54" s="84" t="s">
+      <c r="C54" s="89" t="s">
         <v>233</v>
       </c>
       <c r="D54" s="51"/>
@@ -12161,9 +12165,9 @@
       <c r="G54" s="73"/>
     </row>
     <row r="55" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A55" s="99"/>
+      <c r="A55" s="91"/>
       <c r="B55" s="108"/>
-      <c r="C55" s="85"/>
+      <c r="C55" s="88"/>
       <c r="D55" s="51"/>
       <c r="E55" s="39"/>
       <c r="F55" s="48" t="s">
@@ -12172,9 +12176,9 @@
       <c r="G55" s="74"/>
     </row>
     <row r="56" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A56" s="99"/>
+      <c r="A56" s="91"/>
       <c r="B56" s="108"/>
-      <c r="C56" s="85"/>
+      <c r="C56" s="88"/>
       <c r="D56" s="51"/>
       <c r="E56" s="39"/>
       <c r="F56" s="48" t="s">
@@ -12183,9 +12187,9 @@
       <c r="G56" s="74"/>
     </row>
     <row r="57" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A57" s="99"/>
+      <c r="A57" s="91"/>
       <c r="B57" s="108"/>
-      <c r="C57" s="85"/>
+      <c r="C57" s="88"/>
       <c r="D57" s="51"/>
       <c r="E57" s="39"/>
       <c r="F57" s="48" t="s">
@@ -12194,9 +12198,9 @@
       <c r="G57" s="74"/>
     </row>
     <row r="58" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A58" s="99"/>
+      <c r="A58" s="91"/>
       <c r="B58" s="108"/>
-      <c r="C58" s="85"/>
+      <c r="C58" s="88"/>
       <c r="D58" s="51"/>
       <c r="E58" s="39"/>
       <c r="F58" s="48" t="s">
@@ -12205,9 +12209,9 @@
       <c r="G58" s="74"/>
     </row>
     <row r="59" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A59" s="99"/>
+      <c r="A59" s="91"/>
       <c r="B59" s="108"/>
-      <c r="C59" s="85"/>
+      <c r="C59" s="88"/>
       <c r="D59" s="51"/>
       <c r="E59" s="39"/>
       <c r="F59" s="48" t="s">
@@ -12216,9 +12220,9 @@
       <c r="G59" s="74"/>
     </row>
     <row r="60" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A60" s="99"/>
+      <c r="A60" s="91"/>
       <c r="B60" s="108"/>
-      <c r="C60" s="85"/>
+      <c r="C60" s="88"/>
       <c r="D60" s="51"/>
       <c r="E60" s="39"/>
       <c r="F60" s="48" t="s">
@@ -12227,9 +12231,9 @@
       <c r="G60" s="74"/>
     </row>
     <row r="61" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A61" s="99"/>
+      <c r="A61" s="91"/>
       <c r="B61" s="108"/>
-      <c r="C61" s="85"/>
+      <c r="C61" s="88"/>
       <c r="D61" s="51"/>
       <c r="E61" s="39"/>
       <c r="F61" s="48" t="s">
@@ -12238,9 +12242,9 @@
       <c r="G61" s="74"/>
     </row>
     <row r="62" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A62" s="99"/>
+      <c r="A62" s="91"/>
       <c r="B62" s="108"/>
-      <c r="C62" s="85"/>
+      <c r="C62" s="88"/>
       <c r="D62" s="51"/>
       <c r="E62" s="39"/>
       <c r="F62" s="48" t="s">
@@ -12249,9 +12253,9 @@
       <c r="G62" s="74"/>
     </row>
     <row r="63" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A63" s="99"/>
+      <c r="A63" s="91"/>
       <c r="B63" s="108"/>
-      <c r="C63" s="85"/>
+      <c r="C63" s="88"/>
       <c r="D63" s="51"/>
       <c r="E63" s="39"/>
       <c r="F63" s="48" t="s">
@@ -12260,9 +12264,9 @@
       <c r="G63" s="74"/>
     </row>
     <row r="64" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A64" s="99"/>
+      <c r="A64" s="91"/>
       <c r="B64" s="108"/>
-      <c r="C64" s="85"/>
+      <c r="C64" s="88"/>
       <c r="D64" s="51"/>
       <c r="E64" s="39"/>
       <c r="F64" s="48" t="s">
@@ -12271,9 +12275,9 @@
       <c r="G64" s="74"/>
     </row>
     <row r="65" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A65" s="99"/>
+      <c r="A65" s="91"/>
       <c r="B65" s="108"/>
-      <c r="C65" s="85"/>
+      <c r="C65" s="88"/>
       <c r="D65" s="51"/>
       <c r="E65" s="39"/>
       <c r="F65" s="48" t="s">
@@ -12282,9 +12286,9 @@
       <c r="G65" s="74"/>
     </row>
     <row r="66" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A66" s="99"/>
+      <c r="A66" s="91"/>
       <c r="B66" s="108"/>
-      <c r="C66" s="85"/>
+      <c r="C66" s="88"/>
       <c r="D66" s="51"/>
       <c r="E66" s="39"/>
       <c r="F66" s="48" t="s">
@@ -12293,9 +12297,9 @@
       <c r="G66" s="74"/>
     </row>
     <row r="67" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A67" s="99"/>
+      <c r="A67" s="91"/>
       <c r="B67" s="108"/>
-      <c r="C67" s="85"/>
+      <c r="C67" s="88"/>
       <c r="D67" s="51"/>
       <c r="E67" s="39"/>
       <c r="F67" s="48" t="s">
@@ -12304,9 +12308,9 @@
       <c r="G67" s="74"/>
     </row>
     <row r="68" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A68" s="99"/>
+      <c r="A68" s="91"/>
       <c r="B68" s="108"/>
-      <c r="C68" s="85"/>
+      <c r="C68" s="88"/>
       <c r="D68" s="51"/>
       <c r="E68" s="39"/>
       <c r="F68" s="48" t="s">
@@ -12315,9 +12319,9 @@
       <c r="G68" s="74"/>
     </row>
     <row r="69" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A69" s="99"/>
+      <c r="A69" s="91"/>
       <c r="B69" s="108"/>
-      <c r="C69" s="85"/>
+      <c r="C69" s="88"/>
       <c r="D69" s="51"/>
       <c r="E69" s="39"/>
       <c r="F69" s="48" t="s">
@@ -12326,9 +12330,9 @@
       <c r="G69" s="74"/>
     </row>
     <row r="70" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A70" s="99"/>
+      <c r="A70" s="91"/>
       <c r="B70" s="108"/>
-      <c r="C70" s="85"/>
+      <c r="C70" s="88"/>
       <c r="D70" s="51"/>
       <c r="E70" s="39"/>
       <c r="F70" s="48" t="s">
@@ -12337,9 +12341,9 @@
       <c r="G70" s="74"/>
     </row>
     <row r="71" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A71" s="99"/>
+      <c r="A71" s="91"/>
       <c r="B71" s="108"/>
-      <c r="C71" s="84" t="s">
+      <c r="C71" s="89" t="s">
         <v>170</v>
       </c>
       <c r="D71" s="73"/>
@@ -12350,9 +12354,9 @@
       <c r="G71" s="74"/>
     </row>
     <row r="72" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A72" s="99"/>
+      <c r="A72" s="91"/>
       <c r="B72" s="108"/>
-      <c r="C72" s="85"/>
+      <c r="C72" s="88"/>
       <c r="D72" s="74"/>
       <c r="E72" s="39"/>
       <c r="F72" s="48" t="s">
@@ -12361,9 +12365,9 @@
       <c r="G72" s="74"/>
     </row>
     <row r="73" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A73" s="99"/>
+      <c r="A73" s="91"/>
       <c r="B73" s="108"/>
-      <c r="C73" s="85"/>
+      <c r="C73" s="88"/>
       <c r="D73" s="74"/>
       <c r="E73" s="39"/>
       <c r="F73" s="48" t="s">
@@ -12372,9 +12376,9 @@
       <c r="G73" s="74"/>
     </row>
     <row r="74" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A74" s="99"/>
+      <c r="A74" s="91"/>
       <c r="B74" s="108"/>
-      <c r="C74" s="85"/>
+      <c r="C74" s="88"/>
       <c r="D74" s="74"/>
       <c r="E74" s="39"/>
       <c r="F74" s="48" t="s">
@@ -12383,9 +12387,9 @@
       <c r="G74" s="74"/>
     </row>
     <row r="75" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A75" s="99"/>
+      <c r="A75" s="91"/>
       <c r="B75" s="108"/>
-      <c r="C75" s="85"/>
+      <c r="C75" s="88"/>
       <c r="D75" s="74"/>
       <c r="E75" s="39"/>
       <c r="F75" s="48" t="s">
@@ -12394,9 +12398,9 @@
       <c r="G75" s="74"/>
     </row>
     <row r="76" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A76" s="99"/>
+      <c r="A76" s="91"/>
       <c r="B76" s="108"/>
-      <c r="C76" s="85"/>
+      <c r="C76" s="88"/>
       <c r="D76" s="74"/>
       <c r="E76" s="39"/>
       <c r="F76" s="48" t="s">
@@ -12405,9 +12409,9 @@
       <c r="G76" s="74"/>
     </row>
     <row r="77" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A77" s="99"/>
+      <c r="A77" s="91"/>
       <c r="B77" s="108"/>
-      <c r="C77" s="85"/>
+      <c r="C77" s="88"/>
       <c r="D77" s="74"/>
       <c r="E77" s="39"/>
       <c r="F77" s="48" t="s">
@@ -12416,9 +12420,9 @@
       <c r="G77" s="74"/>
     </row>
     <row r="78" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A78" s="99"/>
+      <c r="A78" s="91"/>
       <c r="B78" s="108"/>
-      <c r="C78" s="85"/>
+      <c r="C78" s="88"/>
       <c r="D78" s="74"/>
       <c r="E78" s="39"/>
       <c r="F78" s="48" t="s">
@@ -12427,9 +12431,9 @@
       <c r="G78" s="74"/>
     </row>
     <row r="79" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A79" s="99"/>
+      <c r="A79" s="91"/>
       <c r="B79" s="108"/>
-      <c r="C79" s="85"/>
+      <c r="C79" s="88"/>
       <c r="D79" s="74"/>
       <c r="E79" s="39"/>
       <c r="F79" s="48" t="s">
@@ -12438,9 +12442,9 @@
       <c r="G79" s="74"/>
     </row>
     <row r="80" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A80" s="99"/>
+      <c r="A80" s="91"/>
       <c r="B80" s="108"/>
-      <c r="C80" s="85"/>
+      <c r="C80" s="88"/>
       <c r="D80" s="74"/>
       <c r="E80" s="39"/>
       <c r="F80" s="48" t="s">
@@ -12449,9 +12453,9 @@
       <c r="G80" s="74"/>
     </row>
     <row r="81" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A81" s="99"/>
+      <c r="A81" s="91"/>
       <c r="B81" s="108"/>
-      <c r="C81" s="85"/>
+      <c r="C81" s="88"/>
       <c r="D81" s="74"/>
       <c r="E81" s="39"/>
       <c r="F81" s="48" t="s">
@@ -12460,9 +12464,9 @@
       <c r="G81" s="75"/>
     </row>
     <row r="82" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A82" s="99"/>
+      <c r="A82" s="91"/>
       <c r="B82" s="108"/>
-      <c r="C82" s="84" t="s">
+      <c r="C82" s="89" t="s">
         <v>105</v>
       </c>
       <c r="D82" s="74"/>
@@ -12470,157 +12474,157 @@
       <c r="F82" s="48" t="s">
         <v>182</v>
       </c>
-      <c r="G82" s="84" t="s">
+      <c r="G82" s="89" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A83" s="99"/>
+      <c r="A83" s="91"/>
       <c r="B83" s="108"/>
-      <c r="C83" s="85"/>
+      <c r="C83" s="88"/>
       <c r="D83" s="74"/>
       <c r="E83" s="39"/>
       <c r="F83" s="48" t="s">
         <v>184</v>
       </c>
-      <c r="G83" s="85"/>
+      <c r="G83" s="88"/>
     </row>
     <row r="84" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A84" s="99"/>
+      <c r="A84" s="91"/>
       <c r="B84" s="108"/>
-      <c r="C84" s="85"/>
+      <c r="C84" s="88"/>
       <c r="D84" s="74"/>
       <c r="E84" s="39"/>
       <c r="F84" s="48" t="s">
         <v>172</v>
       </c>
-      <c r="G84" s="85"/>
+      <c r="G84" s="88"/>
     </row>
     <row r="85" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A85" s="99"/>
+      <c r="A85" s="91"/>
       <c r="B85" s="108"/>
-      <c r="C85" s="85"/>
+      <c r="C85" s="88"/>
       <c r="D85" s="74"/>
       <c r="E85" s="39"/>
       <c r="F85" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="G85" s="85"/>
+      <c r="G85" s="88"/>
     </row>
     <row r="86" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A86" s="99"/>
+      <c r="A86" s="91"/>
       <c r="B86" s="108"/>
-      <c r="C86" s="85"/>
+      <c r="C86" s="88"/>
       <c r="D86" s="74"/>
       <c r="E86" s="39"/>
       <c r="F86" s="48" t="s">
         <v>172</v>
       </c>
-      <c r="G86" s="85"/>
+      <c r="G86" s="88"/>
     </row>
     <row r="87" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A87" s="99"/>
+      <c r="A87" s="91"/>
       <c r="B87" s="108"/>
-      <c r="C87" s="85"/>
+      <c r="C87" s="88"/>
       <c r="D87" s="74"/>
       <c r="E87" s="39"/>
       <c r="F87" s="48" t="s">
         <v>173</v>
       </c>
-      <c r="G87" s="85"/>
+      <c r="G87" s="88"/>
     </row>
     <row r="88" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A88" s="99"/>
+      <c r="A88" s="91"/>
       <c r="B88" s="108"/>
-      <c r="C88" s="85"/>
+      <c r="C88" s="88"/>
       <c r="D88" s="74"/>
       <c r="E88" s="39"/>
       <c r="F88" s="48" t="s">
         <v>174</v>
       </c>
-      <c r="G88" s="85"/>
+      <c r="G88" s="88"/>
     </row>
     <row r="89" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A89" s="99"/>
+      <c r="A89" s="91"/>
       <c r="B89" s="108"/>
-      <c r="C89" s="85"/>
+      <c r="C89" s="88"/>
       <c r="D89" s="74"/>
       <c r="E89" s="39"/>
       <c r="F89" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="G89" s="85"/>
+      <c r="G89" s="88"/>
     </row>
     <row r="90" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A90" s="99"/>
+      <c r="A90" s="91"/>
       <c r="B90" s="108"/>
-      <c r="C90" s="85"/>
+      <c r="C90" s="88"/>
       <c r="D90" s="74"/>
       <c r="E90" s="39"/>
       <c r="F90" s="48" t="s">
         <v>176</v>
       </c>
-      <c r="G90" s="85"/>
+      <c r="G90" s="88"/>
     </row>
     <row r="91" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A91" s="99"/>
+      <c r="A91" s="91"/>
       <c r="B91" s="108"/>
-      <c r="C91" s="85"/>
+      <c r="C91" s="88"/>
       <c r="D91" s="74"/>
       <c r="E91" s="39"/>
       <c r="F91" s="48" t="s">
         <v>177</v>
       </c>
-      <c r="G91" s="85"/>
+      <c r="G91" s="88"/>
     </row>
     <row r="92" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A92" s="99"/>
+      <c r="A92" s="91"/>
       <c r="B92" s="108"/>
-      <c r="C92" s="85"/>
+      <c r="C92" s="88"/>
       <c r="D92" s="74"/>
       <c r="E92" s="39"/>
       <c r="F92" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="G92" s="85"/>
+      <c r="G92" s="88"/>
     </row>
     <row r="93" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A93" s="99"/>
+      <c r="A93" s="91"/>
       <c r="B93" s="108"/>
-      <c r="C93" s="85"/>
+      <c r="C93" s="88"/>
       <c r="D93" s="74"/>
       <c r="E93" s="39"/>
       <c r="F93" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="G93" s="85"/>
+      <c r="G93" s="88"/>
     </row>
     <row r="94" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A94" s="99"/>
+      <c r="A94" s="91"/>
       <c r="B94" s="108"/>
-      <c r="C94" s="85"/>
+      <c r="C94" s="88"/>
       <c r="D94" s="74"/>
       <c r="E94" s="39"/>
       <c r="F94" s="48" t="s">
         <v>180</v>
       </c>
-      <c r="G94" s="85"/>
+      <c r="G94" s="88"/>
     </row>
     <row r="95" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A95" s="99"/>
+      <c r="A95" s="91"/>
       <c r="B95" s="108"/>
-      <c r="C95" s="85"/>
+      <c r="C95" s="88"/>
       <c r="D95" s="74"/>
       <c r="E95" s="39"/>
       <c r="F95" s="48" t="s">
         <v>181</v>
       </c>
-      <c r="G95" s="85"/>
+      <c r="G95" s="88"/>
     </row>
     <row r="96" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A96" s="99"/>
+      <c r="A96" s="91"/>
       <c r="B96" s="108"/>
-      <c r="C96" s="84" t="s">
+      <c r="C96" s="89" t="s">
         <v>170</v>
       </c>
       <c r="D96" s="74"/>
@@ -12628,122 +12632,122 @@
       <c r="F96" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="G96" s="85"/>
+      <c r="G96" s="88"/>
     </row>
     <row r="97" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A97" s="99"/>
+      <c r="A97" s="91"/>
       <c r="B97" s="108"/>
-      <c r="C97" s="85"/>
+      <c r="C97" s="88"/>
       <c r="D97" s="74"/>
       <c r="E97" s="39"/>
       <c r="F97" s="48" t="s">
         <v>172</v>
       </c>
-      <c r="G97" s="85"/>
+      <c r="G97" s="88"/>
     </row>
     <row r="98" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A98" s="99"/>
+      <c r="A98" s="91"/>
       <c r="B98" s="108"/>
-      <c r="C98" s="85"/>
+      <c r="C98" s="88"/>
       <c r="D98" s="74"/>
       <c r="E98" s="39"/>
       <c r="F98" s="48" t="s">
         <v>173</v>
       </c>
-      <c r="G98" s="85"/>
+      <c r="G98" s="88"/>
     </row>
     <row r="99" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A99" s="99"/>
+      <c r="A99" s="91"/>
       <c r="B99" s="108"/>
-      <c r="C99" s="85"/>
+      <c r="C99" s="88"/>
       <c r="D99" s="74"/>
       <c r="E99" s="39"/>
       <c r="F99" s="48" t="s">
         <v>174</v>
       </c>
-      <c r="G99" s="85"/>
+      <c r="G99" s="88"/>
     </row>
     <row r="100" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A100" s="99"/>
+      <c r="A100" s="91"/>
       <c r="B100" s="108"/>
-      <c r="C100" s="85"/>
+      <c r="C100" s="88"/>
       <c r="D100" s="74"/>
       <c r="E100" s="39"/>
       <c r="F100" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="G100" s="85"/>
+      <c r="G100" s="88"/>
     </row>
     <row r="101" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A101" s="99"/>
+      <c r="A101" s="91"/>
       <c r="B101" s="108"/>
-      <c r="C101" s="85"/>
+      <c r="C101" s="88"/>
       <c r="D101" s="74"/>
       <c r="E101" s="39"/>
       <c r="F101" s="48" t="s">
         <v>176</v>
       </c>
-      <c r="G101" s="85"/>
+      <c r="G101" s="88"/>
     </row>
     <row r="102" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A102" s="99"/>
+      <c r="A102" s="91"/>
       <c r="B102" s="108"/>
-      <c r="C102" s="85"/>
+      <c r="C102" s="88"/>
       <c r="D102" s="74"/>
       <c r="E102" s="39"/>
       <c r="F102" s="48" t="s">
         <v>177</v>
       </c>
-      <c r="G102" s="85"/>
+      <c r="G102" s="88"/>
     </row>
     <row r="103" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A103" s="99"/>
+      <c r="A103" s="91"/>
       <c r="B103" s="108"/>
-      <c r="C103" s="85"/>
+      <c r="C103" s="88"/>
       <c r="D103" s="74"/>
       <c r="E103" s="39"/>
       <c r="F103" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="G103" s="85"/>
+      <c r="G103" s="88"/>
     </row>
     <row r="104" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A104" s="99"/>
+      <c r="A104" s="91"/>
       <c r="B104" s="108"/>
-      <c r="C104" s="85"/>
+      <c r="C104" s="88"/>
       <c r="D104" s="74"/>
       <c r="E104" s="39"/>
       <c r="F104" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="G104" s="85"/>
+      <c r="G104" s="88"/>
     </row>
     <row r="105" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A105" s="99"/>
+      <c r="A105" s="91"/>
       <c r="B105" s="108"/>
-      <c r="C105" s="85"/>
+      <c r="C105" s="88"/>
       <c r="D105" s="74"/>
       <c r="E105" s="39"/>
       <c r="F105" s="48" t="s">
         <v>180</v>
       </c>
-      <c r="G105" s="85"/>
+      <c r="G105" s="88"/>
     </row>
     <row r="106" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A106" s="99"/>
+      <c r="A106" s="91"/>
       <c r="B106" s="108"/>
-      <c r="C106" s="85"/>
+      <c r="C106" s="88"/>
       <c r="D106" s="74"/>
       <c r="E106" s="39"/>
       <c r="F106" s="48" t="s">
         <v>181</v>
       </c>
-      <c r="G106" s="85"/>
+      <c r="G106" s="88"/>
     </row>
     <row r="107" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A107" s="99"/>
+      <c r="A107" s="91"/>
       <c r="B107" s="108"/>
-      <c r="C107" s="84" t="s">
+      <c r="C107" s="89" t="s">
         <v>186</v>
       </c>
       <c r="D107" s="74"/>
@@ -12751,104 +12755,104 @@
       <c r="F107" s="48" t="s">
         <v>187</v>
       </c>
-      <c r="G107" s="85"/>
+      <c r="G107" s="88"/>
     </row>
     <row r="108" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A108" s="99"/>
+      <c r="A108" s="91"/>
       <c r="B108" s="108"/>
-      <c r="C108" s="85"/>
+      <c r="C108" s="88"/>
       <c r="D108" s="74"/>
       <c r="E108" s="39"/>
       <c r="F108" s="48" t="s">
         <v>188</v>
       </c>
-      <c r="G108" s="85"/>
+      <c r="G108" s="88"/>
     </row>
     <row r="109" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A109" s="99"/>
+      <c r="A109" s="91"/>
       <c r="B109" s="108"/>
-      <c r="C109" s="85"/>
+      <c r="C109" s="88"/>
       <c r="D109" s="74"/>
       <c r="E109" s="39"/>
       <c r="F109" s="48" t="s">
         <v>189</v>
       </c>
-      <c r="G109" s="85"/>
+      <c r="G109" s="88"/>
     </row>
     <row r="110" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A110" s="99"/>
+      <c r="A110" s="91"/>
       <c r="B110" s="108"/>
-      <c r="C110" s="85"/>
+      <c r="C110" s="88"/>
       <c r="D110" s="74"/>
       <c r="E110" s="39"/>
       <c r="F110" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="G110" s="85"/>
+      <c r="G110" s="88"/>
     </row>
     <row r="111" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A111" s="99"/>
+      <c r="A111" s="91"/>
       <c r="B111" s="108"/>
-      <c r="C111" s="85"/>
+      <c r="C111" s="88"/>
       <c r="D111" s="74"/>
       <c r="E111" s="39"/>
       <c r="F111" s="48" t="s">
         <v>191</v>
       </c>
-      <c r="G111" s="85"/>
+      <c r="G111" s="88"/>
     </row>
     <row r="112" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A112" s="99"/>
+      <c r="A112" s="91"/>
       <c r="B112" s="108"/>
-      <c r="C112" s="85"/>
+      <c r="C112" s="88"/>
       <c r="D112" s="74"/>
       <c r="E112" s="39"/>
       <c r="F112" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="G112" s="85"/>
+      <c r="G112" s="88"/>
     </row>
     <row r="113" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A113" s="99"/>
+      <c r="A113" s="91"/>
       <c r="B113" s="108"/>
-      <c r="C113" s="85"/>
+      <c r="C113" s="88"/>
       <c r="D113" s="74"/>
       <c r="E113" s="39"/>
       <c r="F113" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="G113" s="85"/>
+      <c r="G113" s="88"/>
     </row>
     <row r="114" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A114" s="99"/>
+      <c r="A114" s="91"/>
       <c r="B114" s="108"/>
-      <c r="C114" s="85"/>
+      <c r="C114" s="88"/>
       <c r="D114" s="74"/>
       <c r="E114" s="39"/>
       <c r="F114" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="G114" s="85"/>
+      <c r="G114" s="88"/>
     </row>
     <row r="115" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A115" s="100"/>
+      <c r="A115" s="92"/>
       <c r="B115" s="108"/>
-      <c r="C115" s="85"/>
+      <c r="C115" s="88"/>
       <c r="D115" s="75"/>
       <c r="E115" s="39"/>
       <c r="F115" s="48" t="s">
         <v>195</v>
       </c>
-      <c r="G115" s="85"/>
+      <c r="G115" s="88"/>
     </row>
     <row r="116" spans="1:7" ht="13.5" customHeight="1">
       <c r="A116" s="107" t="s">
         <v>27</v>
       </c>
-      <c r="B116" s="89" t="s">
+      <c r="B116" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="C116" s="89" t="s">
+      <c r="C116" s="87" t="s">
         <v>76</v>
       </c>
       <c r="D116" s="49" t="s">
@@ -12862,8 +12866,8 @@
     </row>
     <row r="117" spans="1:7" ht="13.5" customHeight="1">
       <c r="A117" s="108"/>
-      <c r="B117" s="85"/>
-      <c r="C117" s="85"/>
+      <c r="B117" s="88"/>
+      <c r="C117" s="88"/>
       <c r="D117" s="49" t="s">
         <v>200</v>
       </c>
@@ -12875,8 +12879,8 @@
     </row>
     <row r="118" spans="1:7" ht="13.5" customHeight="1">
       <c r="A118" s="108"/>
-      <c r="B118" s="85"/>
-      <c r="C118" s="85"/>
+      <c r="B118" s="88"/>
+      <c r="C118" s="88"/>
       <c r="D118" s="49" t="s">
         <v>202</v>
       </c>
@@ -12888,8 +12892,8 @@
     </row>
     <row r="119" spans="1:7" ht="13.5" customHeight="1">
       <c r="A119" s="108"/>
-      <c r="B119" s="85"/>
-      <c r="C119" s="89" t="s">
+      <c r="B119" s="88"/>
+      <c r="C119" s="87" t="s">
         <v>204</v>
       </c>
       <c r="D119" s="50"/>
@@ -12903,8 +12907,8 @@
     </row>
     <row r="120" spans="1:7" ht="13.5" customHeight="1">
       <c r="A120" s="108"/>
-      <c r="B120" s="85"/>
-      <c r="C120" s="85"/>
+      <c r="B120" s="88"/>
+      <c r="C120" s="88"/>
       <c r="D120" s="50"/>
       <c r="E120" s="49" t="s">
         <v>207</v>
@@ -13111,6 +13115,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="D25:D34"/>
+    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="B15:B40"/>
+    <mergeCell ref="B41:B47"/>
+    <mergeCell ref="C3:C12"/>
+    <mergeCell ref="B54:B115"/>
+    <mergeCell ref="B123:B133"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="C96:C106"/>
+    <mergeCell ref="A3:A115"/>
+    <mergeCell ref="C41:C47"/>
+    <mergeCell ref="C130:C131"/>
+    <mergeCell ref="C15:C34"/>
+    <mergeCell ref="C54:C70"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C107:C115"/>
+    <mergeCell ref="C123:C128"/>
     <mergeCell ref="G25:G34"/>
     <mergeCell ref="D35:D40"/>
     <mergeCell ref="A1:G1"/>
@@ -13126,24 +13147,7 @@
     <mergeCell ref="B3:B14"/>
     <mergeCell ref="C116:C118"/>
     <mergeCell ref="B116:B120"/>
-    <mergeCell ref="A134:A135"/>
-    <mergeCell ref="B15:B40"/>
-    <mergeCell ref="B41:B47"/>
-    <mergeCell ref="C3:C12"/>
-    <mergeCell ref="B54:B115"/>
-    <mergeCell ref="B123:B133"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="C96:C106"/>
-    <mergeCell ref="A3:A115"/>
-    <mergeCell ref="C41:C47"/>
-    <mergeCell ref="C130:C131"/>
-    <mergeCell ref="C15:C34"/>
     <mergeCell ref="D3:D9"/>
-    <mergeCell ref="C54:C70"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C107:C115"/>
-    <mergeCell ref="C123:C128"/>
-    <mergeCell ref="D25:D34"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180599999999998" footer="0.51180599999999998"/>
